--- a/db.xlsx
+++ b/db.xlsx
@@ -651,7 +651,7 @@
       <c r="BJ2" s="0" t="inlineStr"/>
       <c r="BK2" s="0" t="inlineStr"/>
       <c r="BL2" s="0" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
+      <c r="BM2" s="0" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr"/>
@@ -718,7 +718,7 @@
       <c r="BJ3" s="0" t="inlineStr"/>
       <c r="BK3" s="0" t="inlineStr"/>
       <c r="BL3" s="0" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
+      <c r="BM3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr"/>
@@ -785,7 +785,7 @@
       <c r="BJ4" s="0" t="inlineStr"/>
       <c r="BK4" s="0" t="inlineStr"/>
       <c r="BL4" s="0" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
+      <c r="BM4" s="0" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr"/>
@@ -852,7 +852,7 @@
       <c r="BJ5" s="0" t="inlineStr"/>
       <c r="BK5" s="0" t="inlineStr"/>
       <c r="BL5" s="0" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
+      <c r="BM5" s="0" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr"/>
@@ -919,7 +919,7 @@
       <c r="BJ6" s="0" t="inlineStr"/>
       <c r="BK6" s="0" t="inlineStr"/>
       <c r="BL6" s="0" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
+      <c r="BM6" s="0" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr"/>
@@ -986,7 +986,7 @@
       <c r="BJ7" s="0" t="inlineStr"/>
       <c r="BK7" s="0" t="inlineStr"/>
       <c r="BL7" s="0" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
+      <c r="BM7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr"/>
@@ -1053,7 +1053,7 @@
       <c r="BJ8" s="0" t="inlineStr"/>
       <c r="BK8" s="0" t="inlineStr"/>
       <c r="BL8" s="0" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
+      <c r="BM8" s="0" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr"/>
@@ -1120,7 +1120,7 @@
       <c r="BJ9" s="0" t="inlineStr"/>
       <c r="BK9" s="0" t="inlineStr"/>
       <c r="BL9" s="0" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
+      <c r="BM9" s="0" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr"/>
@@ -1187,7 +1187,7 @@
       <c r="BJ10" s="0" t="inlineStr"/>
       <c r="BK10" s="0" t="inlineStr"/>
       <c r="BL10" s="0" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
+      <c r="BM10" s="0" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr"/>
@@ -1254,7 +1254,7 @@
       <c r="BJ11" s="0" t="inlineStr"/>
       <c r="BK11" s="0" t="inlineStr"/>
       <c r="BL11" s="0" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
+      <c r="BM11" s="0" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       <c r="BJ12" s="0" t="inlineStr"/>
       <c r="BK12" s="0" t="inlineStr"/>
       <c r="BL12" s="0" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
+      <c r="BM12" s="0" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       <c r="BJ13" s="0" t="inlineStr"/>
       <c r="BK13" s="0" t="inlineStr"/>
       <c r="BL13" s="0" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
+      <c r="BM13" s="0" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr"/>
@@ -1455,7 +1455,7 @@
       <c r="BJ14" s="0" t="inlineStr"/>
       <c r="BK14" s="0" t="inlineStr"/>
       <c r="BL14" s="0" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
+      <c r="BM14" s="0" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr"/>
@@ -1522,7 +1522,7 @@
       <c r="BJ15" s="0" t="inlineStr"/>
       <c r="BK15" s="0" t="inlineStr"/>
       <c r="BL15" s="0" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
+      <c r="BM15" s="0" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       <c r="BJ16" s="0" t="inlineStr"/>
       <c r="BK16" s="0" t="inlineStr"/>
       <c r="BL16" s="0" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
+      <c r="BM16" s="0" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr"/>
@@ -1656,7 +1656,7 @@
       <c r="BJ17" s="0" t="inlineStr"/>
       <c r="BK17" s="0" t="inlineStr"/>
       <c r="BL17" s="0" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
+      <c r="BM17" s="0" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr"/>
@@ -1723,7 +1723,7 @@
       <c r="BJ18" s="0" t="inlineStr"/>
       <c r="BK18" s="0" t="inlineStr"/>
       <c r="BL18" s="0" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
+      <c r="BM18" s="0" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr"/>
@@ -1790,7 +1790,7 @@
       <c r="BJ19" s="0" t="inlineStr"/>
       <c r="BK19" s="0" t="inlineStr"/>
       <c r="BL19" s="0" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
+      <c r="BM19" s="0" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr"/>
@@ -1857,7 +1857,7 @@
       <c r="BJ20" s="0" t="inlineStr"/>
       <c r="BK20" s="0" t="inlineStr"/>
       <c r="BL20" s="0" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
+      <c r="BM20" s="0" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr"/>
@@ -1924,7 +1924,7 @@
       <c r="BJ21" s="0" t="inlineStr"/>
       <c r="BK21" s="0" t="inlineStr"/>
       <c r="BL21" s="0" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
+      <c r="BM21" s="0" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr"/>
@@ -1991,7 +1991,7 @@
       <c r="BJ22" s="0" t="inlineStr"/>
       <c r="BK22" s="0" t="inlineStr"/>
       <c r="BL22" s="0" t="inlineStr"/>
-      <c r="BM22" t="inlineStr"/>
+      <c r="BM22" s="0" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
       <c r="BJ23" s="0" t="inlineStr"/>
       <c r="BK23" s="0" t="inlineStr"/>
       <c r="BL23" s="0" t="inlineStr"/>
-      <c r="BM23" t="inlineStr"/>
+      <c r="BM23" s="0" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr"/>
@@ -2125,7 +2125,7 @@
       <c r="BJ24" s="0" t="inlineStr"/>
       <c r="BK24" s="0" t="inlineStr"/>
       <c r="BL24" s="0" t="inlineStr"/>
-      <c r="BM24" t="inlineStr"/>
+      <c r="BM24" s="0" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr"/>
@@ -2192,7 +2192,7 @@
       <c r="BJ25" s="0" t="inlineStr"/>
       <c r="BK25" s="0" t="inlineStr"/>
       <c r="BL25" s="0" t="inlineStr"/>
-      <c r="BM25" t="inlineStr"/>
+      <c r="BM25" s="0" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr"/>
@@ -2259,7 +2259,7 @@
       <c r="BJ26" s="0" t="inlineStr"/>
       <c r="BK26" s="0" t="inlineStr"/>
       <c r="BL26" s="0" t="inlineStr"/>
-      <c r="BM26" t="inlineStr"/>
+      <c r="BM26" s="0" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr"/>
@@ -2326,7 +2326,7 @@
       <c r="BJ27" s="0" t="inlineStr"/>
       <c r="BK27" s="0" t="inlineStr"/>
       <c r="BL27" s="0" t="inlineStr"/>
-      <c r="BM27" t="inlineStr"/>
+      <c r="BM27" s="0" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr"/>
@@ -2393,7 +2393,7 @@
       <c r="BJ28" s="0" t="inlineStr"/>
       <c r="BK28" s="0" t="inlineStr"/>
       <c r="BL28" s="0" t="inlineStr"/>
-      <c r="BM28" t="inlineStr"/>
+      <c r="BM28" s="0" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
       <c r="BJ29" s="0" t="inlineStr"/>
       <c r="BK29" s="0" t="inlineStr"/>
       <c r="BL29" s="0" t="inlineStr"/>
-      <c r="BM29" t="inlineStr"/>
+      <c r="BM29" s="0" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr"/>
@@ -2527,7 +2527,7 @@
       <c r="BJ30" s="0" t="inlineStr"/>
       <c r="BK30" s="0" t="inlineStr"/>
       <c r="BL30" s="0" t="inlineStr"/>
-      <c r="BM30" t="inlineStr"/>
+      <c r="BM30" s="0" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
       <c r="BJ31" s="0" t="inlineStr"/>
       <c r="BK31" s="0" t="inlineStr"/>
       <c r="BL31" s="0" t="inlineStr"/>
-      <c r="BM31" t="inlineStr"/>
+      <c r="BM31" s="0" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr"/>
@@ -2661,7 +2661,7 @@
       <c r="BJ32" s="0" t="inlineStr"/>
       <c r="BK32" s="0" t="inlineStr"/>
       <c r="BL32" s="0" t="inlineStr"/>
-      <c r="BM32" t="inlineStr"/>
+      <c r="BM32" s="0" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
       <c r="BJ33" s="0" t="inlineStr"/>
       <c r="BK33" s="0" t="inlineStr"/>
       <c r="BL33" s="0" t="inlineStr"/>
-      <c r="BM33" t="inlineStr"/>
+      <c r="BM33" s="0" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr"/>
@@ -2795,7 +2795,7 @@
       <c r="BJ34" s="0" t="inlineStr"/>
       <c r="BK34" s="0" t="inlineStr"/>
       <c r="BL34" s="0" t="inlineStr"/>
-      <c r="BM34" t="inlineStr"/>
+      <c r="BM34" s="0" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr"/>
@@ -2862,7 +2862,7 @@
       <c r="BJ35" s="0" t="inlineStr"/>
       <c r="BK35" s="0" t="inlineStr"/>
       <c r="BL35" s="0" t="inlineStr"/>
-      <c r="BM35" t="inlineStr"/>
+      <c r="BM35" s="0" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr"/>
@@ -2929,7 +2929,7 @@
       <c r="BJ36" s="0" t="inlineStr"/>
       <c r="BK36" s="0" t="inlineStr"/>
       <c r="BL36" s="0" t="inlineStr"/>
-      <c r="BM36" t="inlineStr"/>
+      <c r="BM36" s="0" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr"/>
@@ -2996,7 +2996,7 @@
       <c r="BJ37" s="0" t="inlineStr"/>
       <c r="BK37" s="0" t="inlineStr"/>
       <c r="BL37" s="0" t="inlineStr"/>
-      <c r="BM37" t="inlineStr"/>
+      <c r="BM37" s="0" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr"/>
@@ -3063,7 +3063,7 @@
       <c r="BJ38" s="0" t="inlineStr"/>
       <c r="BK38" s="0" t="inlineStr"/>
       <c r="BL38" s="0" t="inlineStr"/>
-      <c r="BM38" t="inlineStr"/>
+      <c r="BM38" s="0" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr"/>
@@ -3130,7 +3130,7 @@
       <c r="BJ39" s="0" t="inlineStr"/>
       <c r="BK39" s="0" t="inlineStr"/>
       <c r="BL39" s="0" t="inlineStr"/>
-      <c r="BM39" t="inlineStr"/>
+      <c r="BM39" s="0" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr"/>
@@ -3197,7 +3197,7 @@
       <c r="BJ40" s="0" t="inlineStr"/>
       <c r="BK40" s="0" t="inlineStr"/>
       <c r="BL40" s="0" t="inlineStr"/>
-      <c r="BM40" t="inlineStr"/>
+      <c r="BM40" s="0" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr"/>
@@ -3264,7 +3264,7 @@
       <c r="BJ41" s="0" t="inlineStr"/>
       <c r="BK41" s="0" t="inlineStr"/>
       <c r="BL41" s="0" t="inlineStr"/>
-      <c r="BM41" t="inlineStr"/>
+      <c r="BM41" s="0" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr"/>
@@ -3331,7 +3331,7 @@
       <c r="BJ42" s="0" t="inlineStr"/>
       <c r="BK42" s="0" t="inlineStr"/>
       <c r="BL42" s="0" t="inlineStr"/>
-      <c r="BM42" t="inlineStr"/>
+      <c r="BM42" s="0" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr"/>
@@ -3398,7 +3398,7 @@
       <c r="BJ43" s="0" t="inlineStr"/>
       <c r="BK43" s="0" t="inlineStr"/>
       <c r="BL43" s="0" t="inlineStr"/>
-      <c r="BM43" t="inlineStr"/>
+      <c r="BM43" s="0" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
       <c r="BJ44" s="0" t="inlineStr"/>
       <c r="BK44" s="0" t="inlineStr"/>
       <c r="BL44" s="0" t="inlineStr"/>
-      <c r="BM44" t="inlineStr"/>
+      <c r="BM44" s="0" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr"/>
@@ -3532,7 +3532,7 @@
       <c r="BJ45" s="0" t="inlineStr"/>
       <c r="BK45" s="0" t="inlineStr"/>
       <c r="BL45" s="0" t="inlineStr"/>
-      <c r="BM45" t="inlineStr"/>
+      <c r="BM45" s="0" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr"/>
@@ -3599,7 +3599,7 @@
       <c r="BJ46" s="0" t="inlineStr"/>
       <c r="BK46" s="0" t="inlineStr"/>
       <c r="BL46" s="0" t="inlineStr"/>
-      <c r="BM46" t="inlineStr"/>
+      <c r="BM46" s="0" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr"/>
@@ -3666,7 +3666,7 @@
       <c r="BJ47" s="0" t="inlineStr"/>
       <c r="BK47" s="0" t="inlineStr"/>
       <c r="BL47" s="0" t="inlineStr"/>
-      <c r="BM47" t="inlineStr"/>
+      <c r="BM47" s="0" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr"/>
@@ -3733,7 +3733,7 @@
       <c r="BJ48" s="0" t="inlineStr"/>
       <c r="BK48" s="0" t="inlineStr"/>
       <c r="BL48" s="0" t="inlineStr"/>
-      <c r="BM48" t="inlineStr"/>
+      <c r="BM48" s="0" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       <c r="BJ49" s="0" t="inlineStr"/>
       <c r="BK49" s="0" t="inlineStr"/>
       <c r="BL49" s="0" t="inlineStr"/>
-      <c r="BM49" t="inlineStr"/>
+      <c r="BM49" s="0" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr"/>
@@ -3867,7 +3867,7 @@
       <c r="BJ50" s="0" t="inlineStr"/>
       <c r="BK50" s="0" t="inlineStr"/>
       <c r="BL50" s="0" t="inlineStr"/>
-      <c r="BM50" t="inlineStr"/>
+      <c r="BM50" s="0" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr"/>
@@ -3934,7 +3934,7 @@
       <c r="BJ51" s="0" t="inlineStr"/>
       <c r="BK51" s="0" t="inlineStr"/>
       <c r="BL51" s="0" t="inlineStr"/>
-      <c r="BM51" t="inlineStr"/>
+      <c r="BM51" s="0" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr"/>
@@ -4001,7 +4001,7 @@
       <c r="BJ52" s="0" t="inlineStr"/>
       <c r="BK52" s="0" t="inlineStr"/>
       <c r="BL52" s="0" t="inlineStr"/>
-      <c r="BM52" t="inlineStr"/>
+      <c r="BM52" s="0" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr"/>
@@ -4068,7 +4068,7 @@
       <c r="BJ53" s="0" t="inlineStr"/>
       <c r="BK53" s="0" t="inlineStr"/>
       <c r="BL53" s="0" t="inlineStr"/>
-      <c r="BM53" t="inlineStr"/>
+      <c r="BM53" s="0" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
       <c r="BJ54" s="0" t="inlineStr"/>
       <c r="BK54" s="0" t="inlineStr"/>
       <c r="BL54" s="0" t="inlineStr"/>
-      <c r="BM54" t="inlineStr"/>
+      <c r="BM54" s="0" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr"/>
@@ -4202,7 +4202,7 @@
       <c r="BJ55" s="0" t="inlineStr"/>
       <c r="BK55" s="0" t="inlineStr"/>
       <c r="BL55" s="0" t="inlineStr"/>
-      <c r="BM55" t="inlineStr"/>
+      <c r="BM55" s="0" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
       <c r="BJ56" s="0" t="inlineStr"/>
       <c r="BK56" s="0" t="inlineStr"/>
       <c r="BL56" s="0" t="inlineStr"/>
-      <c r="BM56" t="inlineStr"/>
+      <c r="BM56" s="0" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr"/>
@@ -4336,7 +4336,7 @@
       <c r="BJ57" s="0" t="inlineStr"/>
       <c r="BK57" s="0" t="inlineStr"/>
       <c r="BL57" s="0" t="inlineStr"/>
-      <c r="BM57" t="inlineStr"/>
+      <c r="BM57" s="0" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr"/>
@@ -4403,7 +4403,7 @@
       <c r="BJ58" s="0" t="inlineStr"/>
       <c r="BK58" s="0" t="inlineStr"/>
       <c r="BL58" s="0" t="inlineStr"/>
-      <c r="BM58" t="inlineStr"/>
+      <c r="BM58" s="0" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr"/>
@@ -4470,7 +4470,7 @@
       <c r="BJ59" s="0" t="inlineStr"/>
       <c r="BK59" s="0" t="inlineStr"/>
       <c r="BL59" s="0" t="inlineStr"/>
-      <c r="BM59" t="inlineStr"/>
+      <c r="BM59" s="0" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr"/>
@@ -4537,7 +4537,7 @@
       <c r="BJ60" s="0" t="inlineStr"/>
       <c r="BK60" s="0" t="inlineStr"/>
       <c r="BL60" s="0" t="inlineStr"/>
-      <c r="BM60" t="inlineStr"/>
+      <c r="BM60" s="0" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr"/>
@@ -4604,7 +4604,7 @@
       <c r="BJ61" s="0" t="inlineStr"/>
       <c r="BK61" s="0" t="inlineStr"/>
       <c r="BL61" s="0" t="inlineStr"/>
-      <c r="BM61" t="inlineStr"/>
+      <c r="BM61" s="0" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
       <c r="BJ62" s="0" t="inlineStr"/>
       <c r="BK62" s="0" t="inlineStr"/>
       <c r="BL62" s="0" t="inlineStr"/>
-      <c r="BM62" t="inlineStr"/>
+      <c r="BM62" s="0" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="0" t="inlineStr"/>
@@ -4738,7 +4738,7 @@
       <c r="BJ63" s="0" t="inlineStr"/>
       <c r="BK63" s="0" t="inlineStr"/>
       <c r="BL63" s="0" t="inlineStr"/>
-      <c r="BM63" t="inlineStr"/>
+      <c r="BM63" s="0" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="0" t="inlineStr"/>
@@ -4805,7 +4805,7 @@
       <c r="BJ64" s="0" t="inlineStr"/>
       <c r="BK64" s="0" t="inlineStr"/>
       <c r="BL64" s="0" t="inlineStr"/>
-      <c r="BM64" t="inlineStr"/>
+      <c r="BM64" s="0" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr"/>
@@ -4816,63 +4816,63 @@
       <c r="F65" s="0" t="inlineStr"/>
       <c r="G65" s="0" t="inlineStr"/>
       <c r="H65" s="0" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
-      <c r="AL65" t="inlineStr"/>
-      <c r="AM65" t="inlineStr"/>
-      <c r="AN65" t="inlineStr"/>
-      <c r="AO65" t="inlineStr"/>
-      <c r="AP65" t="inlineStr"/>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="inlineStr"/>
-      <c r="AT65" t="inlineStr"/>
-      <c r="AU65" t="inlineStr"/>
-      <c r="AV65" t="inlineStr"/>
-      <c r="AW65" t="inlineStr"/>
-      <c r="AX65" t="inlineStr"/>
-      <c r="AY65" t="inlineStr"/>
-      <c r="AZ65" t="inlineStr"/>
-      <c r="BA65" t="inlineStr"/>
-      <c r="BB65" t="inlineStr"/>
-      <c r="BC65" t="inlineStr"/>
-      <c r="BD65" t="inlineStr"/>
-      <c r="BE65" t="inlineStr"/>
-      <c r="BF65" t="inlineStr"/>
-      <c r="BG65" t="inlineStr"/>
-      <c r="BH65" t="inlineStr"/>
-      <c r="BI65" t="inlineStr"/>
-      <c r="BJ65" t="inlineStr"/>
-      <c r="BK65" t="inlineStr"/>
-      <c r="BL65" t="inlineStr"/>
-      <c r="BM65" t="inlineStr"/>
+      <c r="I65" s="0" t="inlineStr"/>
+      <c r="J65" s="0" t="inlineStr"/>
+      <c r="K65" s="0" t="inlineStr"/>
+      <c r="L65" s="0" t="inlineStr"/>
+      <c r="M65" s="0" t="inlineStr"/>
+      <c r="N65" s="0" t="inlineStr"/>
+      <c r="O65" s="0" t="inlineStr"/>
+      <c r="P65" s="0" t="inlineStr"/>
+      <c r="Q65" s="0" t="inlineStr"/>
+      <c r="R65" s="0" t="inlineStr"/>
+      <c r="S65" s="0" t="inlineStr"/>
+      <c r="T65" s="0" t="inlineStr"/>
+      <c r="U65" s="0" t="inlineStr"/>
+      <c r="V65" s="0" t="inlineStr"/>
+      <c r="W65" s="0" t="inlineStr"/>
+      <c r="X65" s="0" t="inlineStr"/>
+      <c r="Y65" s="0" t="inlineStr"/>
+      <c r="Z65" s="0" t="inlineStr"/>
+      <c r="AA65" s="0" t="inlineStr"/>
+      <c r="AB65" s="0" t="inlineStr"/>
+      <c r="AC65" s="0" t="inlineStr"/>
+      <c r="AD65" s="0" t="inlineStr"/>
+      <c r="AE65" s="0" t="inlineStr"/>
+      <c r="AF65" s="0" t="inlineStr"/>
+      <c r="AG65" s="0" t="inlineStr"/>
+      <c r="AH65" s="0" t="inlineStr"/>
+      <c r="AI65" s="0" t="inlineStr"/>
+      <c r="AJ65" s="0" t="inlineStr"/>
+      <c r="AK65" s="0" t="inlineStr"/>
+      <c r="AL65" s="0" t="inlineStr"/>
+      <c r="AM65" s="0" t="inlineStr"/>
+      <c r="AN65" s="0" t="inlineStr"/>
+      <c r="AO65" s="0" t="inlineStr"/>
+      <c r="AP65" s="0" t="inlineStr"/>
+      <c r="AQ65" s="0" t="inlineStr"/>
+      <c r="AR65" s="0" t="inlineStr"/>
+      <c r="AS65" s="0" t="inlineStr"/>
+      <c r="AT65" s="0" t="inlineStr"/>
+      <c r="AU65" s="0" t="inlineStr"/>
+      <c r="AV65" s="0" t="inlineStr"/>
+      <c r="AW65" s="0" t="inlineStr"/>
+      <c r="AX65" s="0" t="inlineStr"/>
+      <c r="AY65" s="0" t="inlineStr"/>
+      <c r="AZ65" s="0" t="inlineStr"/>
+      <c r="BA65" s="0" t="inlineStr"/>
+      <c r="BB65" s="0" t="inlineStr"/>
+      <c r="BC65" s="0" t="inlineStr"/>
+      <c r="BD65" s="0" t="inlineStr"/>
+      <c r="BE65" s="0" t="inlineStr"/>
+      <c r="BF65" s="0" t="inlineStr"/>
+      <c r="BG65" s="0" t="inlineStr"/>
+      <c r="BH65" s="0" t="inlineStr"/>
+      <c r="BI65" s="0" t="inlineStr"/>
+      <c r="BJ65" s="0" t="inlineStr"/>
+      <c r="BK65" s="0" t="inlineStr"/>
+      <c r="BL65" s="0" t="inlineStr"/>
+      <c r="BM65" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -254,7 +254,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM1"/>
+  <dimension ref="A1:BM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -263,329 +263,434 @@
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>TimeStamp</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>f1</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>f2</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>f3</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>f4</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>f5</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>f6</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>f7</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="0" t="inlineStr">
         <is>
           <t>f8</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="0" t="inlineStr">
         <is>
           <t>f9</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="0" t="inlineStr">
         <is>
           <t>f10</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="0" t="inlineStr">
         <is>
           <t>f11</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="0" t="inlineStr">
         <is>
           <t>f12</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="0" t="inlineStr">
         <is>
           <t>f13</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="0" t="inlineStr">
         <is>
           <t>f14</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="0" t="inlineStr">
         <is>
           <t>f15</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>f16</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>f17</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>f18</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>f19</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>f20</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="0" t="inlineStr">
         <is>
           <t>f21</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="0" t="inlineStr">
         <is>
           <t>f22</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="0" t="inlineStr">
         <is>
           <t>f23</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="0" t="inlineStr">
         <is>
           <t>f24</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="0" t="inlineStr">
         <is>
           <t>f25</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="0" t="inlineStr">
         <is>
           <t>f26</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="0" t="inlineStr">
         <is>
           <t>f27</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="0" t="inlineStr">
         <is>
           <t>f28</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="0" t="inlineStr">
         <is>
           <t>f29</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="0" t="inlineStr">
         <is>
           <t>f30</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="0" t="inlineStr">
         <is>
           <t>f31</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="0" t="inlineStr">
         <is>
           <t>f32</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="0" t="inlineStr">
         <is>
           <t>f33</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="0" t="inlineStr">
         <is>
           <t>f34</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="0" t="inlineStr">
         <is>
           <t>f35</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="0" t="inlineStr">
         <is>
           <t>f36</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="0" t="inlineStr">
         <is>
           <t>f37</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="0" t="inlineStr">
         <is>
           <t>f38</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="0" t="inlineStr">
         <is>
           <t>f39</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AO1" s="0" t="inlineStr">
         <is>
           <t>f40</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AP1" s="0" t="inlineStr">
         <is>
           <t>f41</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AQ1" s="0" t="inlineStr">
         <is>
           <t>f42</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AR1" s="0" t="inlineStr">
         <is>
           <t>f43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="0" t="inlineStr">
         <is>
           <t>f44</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AT1" s="0" t="inlineStr">
         <is>
           <t>f45</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AU1" s="0" t="inlineStr">
         <is>
           <t>f46</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AV1" s="0" t="inlineStr">
         <is>
           <t>f47</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AW1" s="0" t="inlineStr">
         <is>
           <t>f48</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AX1" s="0" t="inlineStr">
         <is>
           <t>f49</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AY1" s="0" t="inlineStr">
         <is>
           <t>f50</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="AZ1" s="0" t="inlineStr">
         <is>
           <t>f51</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BA1" s="0" t="inlineStr">
         <is>
           <t>f52</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BB1" s="0" t="inlineStr">
         <is>
           <t>f53</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BC1" s="0" t="inlineStr">
         <is>
           <t>f54</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BD1" s="0" t="inlineStr">
         <is>
           <t>f55</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BE1" s="0" t="inlineStr">
         <is>
           <t>f56</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BF1" s="0" t="inlineStr">
         <is>
           <t>f57</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BG1" s="0" t="inlineStr">
         <is>
           <t>f58</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BH1" s="0" t="inlineStr">
         <is>
           <t>f59</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BI1" s="0" t="inlineStr">
         <is>
           <t>f60</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="BJ1" s="0" t="inlineStr">
         <is>
           <t>f61</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BK1" s="0" t="inlineStr">
         <is>
           <t>f62</t>
         </is>
       </c>
-      <c r="BL1" t="inlineStr">
+      <c r="BL1" s="0" t="inlineStr">
         <is>
           <t>f63</t>
         </is>
       </c>
-      <c r="BM1" t="inlineStr">
+      <c r="BM1" s="0" t="inlineStr">
         <is>
           <t>f64</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>43730.02648918361</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>11,523</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>10,634</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>43730.04239595082</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>11,523</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>10,634</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>43730.04308590291</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>11,523</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>10,634</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>43730.04377112197</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>11,523</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>10,634</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>43730.04445703271</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>11,523</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>10,634</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>43730.04515679704</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>11,523</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>10,634</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>43730.04584618493</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11,523</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10,634</t>
         </is>
       </c>
     </row>

--- a/db.xlsx
+++ b/db.xlsx
@@ -254,7 +254,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM8"/>
+  <dimension ref="A1:BM1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -263,434 +263,329 @@
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>TimeStamp</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>f1</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>f2</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>f3</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>f4</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>f5</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>f6</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>f7</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>f8</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>f9</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>f10</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>f11</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>f12</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>f13</t>
         </is>
       </c>
-      <c r="O1" s="0" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>f14</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>f15</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>f16</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>f17</t>
         </is>
       </c>
-      <c r="S1" s="0" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>f18</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>f19</t>
         </is>
       </c>
-      <c r="U1" s="0" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>f20</t>
         </is>
       </c>
-      <c r="V1" s="0" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>f21</t>
         </is>
       </c>
-      <c r="W1" s="0" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>f22</t>
         </is>
       </c>
-      <c r="X1" s="0" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>f23</t>
         </is>
       </c>
-      <c r="Y1" s="0" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>f24</t>
         </is>
       </c>
-      <c r="Z1" s="0" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>f25</t>
         </is>
       </c>
-      <c r="AA1" s="0" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>f26</t>
         </is>
       </c>
-      <c r="AB1" s="0" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>f27</t>
         </is>
       </c>
-      <c r="AC1" s="0" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>f28</t>
         </is>
       </c>
-      <c r="AD1" s="0" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>f29</t>
         </is>
       </c>
-      <c r="AE1" s="0" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>f30</t>
         </is>
       </c>
-      <c r="AF1" s="0" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>f31</t>
         </is>
       </c>
-      <c r="AG1" s="0" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>f32</t>
         </is>
       </c>
-      <c r="AH1" s="0" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>f33</t>
         </is>
       </c>
-      <c r="AI1" s="0" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>f34</t>
         </is>
       </c>
-      <c r="AJ1" s="0" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>f35</t>
         </is>
       </c>
-      <c r="AK1" s="0" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>f36</t>
         </is>
       </c>
-      <c r="AL1" s="0" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>f37</t>
         </is>
       </c>
-      <c r="AM1" s="0" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>f38</t>
         </is>
       </c>
-      <c r="AN1" s="0" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>f39</t>
         </is>
       </c>
-      <c r="AO1" s="0" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>f40</t>
         </is>
       </c>
-      <c r="AP1" s="0" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>f41</t>
         </is>
       </c>
-      <c r="AQ1" s="0" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>f42</t>
         </is>
       </c>
-      <c r="AR1" s="0" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>f43</t>
         </is>
       </c>
-      <c r="AS1" s="0" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>f44</t>
         </is>
       </c>
-      <c r="AT1" s="0" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>f45</t>
         </is>
       </c>
-      <c r="AU1" s="0" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>f46</t>
         </is>
       </c>
-      <c r="AV1" s="0" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>f47</t>
         </is>
       </c>
-      <c r="AW1" s="0" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>f48</t>
         </is>
       </c>
-      <c r="AX1" s="0" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>f49</t>
         </is>
       </c>
-      <c r="AY1" s="0" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>f50</t>
         </is>
       </c>
-      <c r="AZ1" s="0" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>f51</t>
         </is>
       </c>
-      <c r="BA1" s="0" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>f52</t>
         </is>
       </c>
-      <c r="BB1" s="0" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>f53</t>
         </is>
       </c>
-      <c r="BC1" s="0" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>f54</t>
         </is>
       </c>
-      <c r="BD1" s="0" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>f55</t>
         </is>
       </c>
-      <c r="BE1" s="0" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>f56</t>
         </is>
       </c>
-      <c r="BF1" s="0" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>f57</t>
         </is>
       </c>
-      <c r="BG1" s="0" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>f58</t>
         </is>
       </c>
-      <c r="BH1" s="0" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>f59</t>
         </is>
       </c>
-      <c r="BI1" s="0" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>f60</t>
         </is>
       </c>
-      <c r="BJ1" s="0" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>f61</t>
         </is>
       </c>
-      <c r="BK1" s="0" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>f62</t>
         </is>
       </c>
-      <c r="BL1" s="0" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>f63</t>
         </is>
       </c>
-      <c r="BM1" s="0" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>f64</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>43730.02648918361</v>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>11,523</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>10,634</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>43730.04239595082</v>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>11,523</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>10,634</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>43730.04308590291</v>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>11,523</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>10,634</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>43730.04377112197</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>11,523</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>10,634</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>43730.04445703271</v>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>11,523</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>10,634</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>43730.04515679704</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>11,523</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>10,634</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>43730.04584618493</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11,523</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10,634</t>
         </is>
       </c>
     </row>
